--- a/cl_0_1_6_water_added_in_ice_saop.xlsx
+++ b/cl_0_1_6_water_added_in_ice_saop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98981FBE-86A8-8749-8305-8D27A500D18E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2352750D-9D01-5548-BFFC-1A42733EA348}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="480" windowWidth="25060" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="21120" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,7 +424,7 @@
   <dimension ref="A4:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/cl_0_1_6_water_added_in_ice_saop.xlsx
+++ b/cl_0_1_6_water_added_in_ice_saop.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2352750D-9D01-5548-BFFC-1A42733EA348}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3539C1E-9879-F04E-82E8-5797DC799D7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="21120" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21120" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>cl_1s_saop_0water_in_active</t>
   </si>
@@ -52,24 +52,6 @@
   </si>
   <si>
     <t>cl_2p_saop_6water_in_active</t>
-  </si>
-  <si>
-    <t>cl_1s_pbe_6water_in_active</t>
-  </si>
-  <si>
-    <t>cl_2s_pbe_6water_in_active</t>
-  </si>
-  <si>
-    <t>cl_2p_pbe_6water_in_active</t>
-  </si>
-  <si>
-    <t>cl_1s_b3lyp_6water_in_active</t>
-  </si>
-  <si>
-    <t>cl_2s_b3lyp_6water_in_active</t>
-  </si>
-  <si>
-    <t>cl_2p_b3lyp_6water_in_active</t>
   </si>
 </sst>
 </file>
@@ -421,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E1151-E718-094E-AE0A-6B8FFA0D72FC}">
-  <dimension ref="A4:O29"/>
+  <dimension ref="A4:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -457,26 +439,8 @@
       <c r="I4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2754.0525210000001</v>
       </c>
@@ -504,26 +468,8 @@
       <c r="I5">
         <v>182.8443145</v>
       </c>
-      <c r="J5">
-        <v>2750.3518250000002</v>
-      </c>
-      <c r="K5">
-        <v>243.075863</v>
-      </c>
-      <c r="L5">
-        <v>182.1980533</v>
-      </c>
-      <c r="M5">
-        <v>2774.1764159999998</v>
-      </c>
-      <c r="N5">
-        <v>250.9855565</v>
-      </c>
-      <c r="O5">
-        <v>188.41822930000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2755.3314380000002</v>
       </c>
@@ -551,26 +497,8 @@
       <c r="I6">
         <v>184.082415</v>
       </c>
-      <c r="J6">
-        <v>2750.6783569999998</v>
-      </c>
-      <c r="K6">
-        <v>243.40239500000001</v>
-      </c>
-      <c r="L6">
-        <v>182.52458530000001</v>
-      </c>
-      <c r="M6">
-        <v>2773.0104249999999</v>
-      </c>
-      <c r="N6">
-        <v>249.7752112</v>
-      </c>
-      <c r="O6">
-        <v>187.21204729999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2754.5151080000001</v>
       </c>
@@ -598,26 +526,8 @@
       <c r="I7">
         <v>183.48377300000001</v>
       </c>
-      <c r="J7">
-        <v>2749.8892380000002</v>
-      </c>
-      <c r="K7">
-        <v>242.64048700000001</v>
-      </c>
-      <c r="L7">
-        <v>181.73546630000001</v>
-      </c>
-      <c r="M7">
-        <v>2773.145391</v>
-      </c>
-      <c r="N7">
-        <v>249.91945670000001</v>
-      </c>
-      <c r="O7">
-        <v>187.35520439999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2755.0865389999999</v>
       </c>
@@ -645,26 +555,8 @@
       <c r="I8">
         <v>184.06880949999999</v>
       </c>
-      <c r="J8">
-        <v>2750.8416229999998</v>
-      </c>
-      <c r="K8">
-        <v>243.592872</v>
-      </c>
-      <c r="L8">
-        <v>182.7150623</v>
-      </c>
-      <c r="M8">
-        <v>2773.7527409999998</v>
-      </c>
-      <c r="N8">
-        <v>250.5184797</v>
-      </c>
-      <c r="O8">
-        <v>187.95454029999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2755.603548</v>
       </c>
@@ -692,26 +584,8 @@
       <c r="I9">
         <v>184.42255249999999</v>
       </c>
-      <c r="J9">
-        <v>2750.3790359999998</v>
-      </c>
-      <c r="K9">
-        <v>243.10307399999999</v>
-      </c>
-      <c r="L9">
-        <v>182.20485600000001</v>
-      </c>
-      <c r="M9">
-        <v>2773.998184</v>
-      </c>
-      <c r="N9">
-        <v>250.77548759999999</v>
-      </c>
-      <c r="O9">
-        <v>188.2116843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2754.0525210000001</v>
       </c>
@@ -739,26 +613,8 @@
       <c r="I10">
         <v>183.021186</v>
       </c>
-      <c r="J10">
-        <v>2751.1681549999998</v>
-      </c>
-      <c r="K10">
-        <v>242.36837700000001</v>
-      </c>
-      <c r="L10">
-        <v>181.4769618</v>
-      </c>
-      <c r="M10">
-        <v>2773.2634870000002</v>
-      </c>
-      <c r="N10">
-        <v>250.03099460000001</v>
-      </c>
-      <c r="O10">
-        <v>187.46610290000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2754.7600069999999</v>
       </c>
@@ -786,26 +642,8 @@
       <c r="I11">
         <v>183.6062225</v>
       </c>
-      <c r="J11">
-        <v>2750.596724</v>
-      </c>
-      <c r="K11">
-        <v>243.347973</v>
-      </c>
-      <c r="L11">
-        <v>182.44975500000001</v>
-      </c>
-      <c r="M11">
-        <v>2774.2158720000002</v>
-      </c>
-      <c r="N11">
-        <v>251.01875390000001</v>
-      </c>
-      <c r="O11">
-        <v>188.45222949999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2755.440282</v>
       </c>
@@ -833,26 +671,8 @@
       <c r="I12">
         <v>184.2592865</v>
       </c>
-      <c r="J12">
-        <v>2749.2905959999998</v>
-      </c>
-      <c r="K12">
-        <v>242.03368169999999</v>
-      </c>
-      <c r="L12">
-        <v>181.13906919999999</v>
-      </c>
-      <c r="M12">
-        <v>2773.579135</v>
-      </c>
-      <c r="N12">
-        <v>250.3548055</v>
-      </c>
-      <c r="O12">
-        <v>187.79018590000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2754.324631</v>
       </c>
@@ -880,26 +700,8 @@
       <c r="I13">
         <v>183.1980575</v>
       </c>
-      <c r="J13">
-        <v>2750.5014860000001</v>
-      </c>
-      <c r="K13">
-        <v>243.23096570000001</v>
-      </c>
-      <c r="L13">
-        <v>182.3341083</v>
-      </c>
-      <c r="M13">
-        <v>2774.0526060000002</v>
-      </c>
-      <c r="N13">
-        <v>250.83263070000001</v>
-      </c>
-      <c r="O13">
-        <v>188.26780690000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2755.3314380000002</v>
       </c>
@@ -927,26 +729,8 @@
       <c r="I14">
         <v>184.2864975</v>
       </c>
-      <c r="J14">
-        <v>2750.8144120000002</v>
-      </c>
-      <c r="K14">
-        <v>243.57926649999999</v>
-      </c>
-      <c r="L14">
-        <v>182.6810485</v>
-      </c>
-      <c r="M14">
-        <v>2773.728795</v>
-      </c>
-      <c r="N14">
-        <v>250.51535039999999</v>
-      </c>
-      <c r="O14">
-        <v>187.9516831</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2755.4130709999999</v>
       </c>
@@ -974,26 +758,8 @@
       <c r="I15">
         <v>184.34091950000001</v>
       </c>
-      <c r="J15">
-        <v>2749.7259720000002</v>
-      </c>
-      <c r="K15">
-        <v>242.4608944</v>
-      </c>
-      <c r="L15">
-        <v>181.57015939999999</v>
-      </c>
-      <c r="M15">
-        <v>2773.4104259999999</v>
-      </c>
-      <c r="N15">
-        <v>250.2214716</v>
-      </c>
-      <c r="O15">
-        <v>187.654539</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2754.5151080000001</v>
       </c>
@@ -1021,26 +787,8 @@
       <c r="I16">
         <v>183.25247949999999</v>
       </c>
-      <c r="J16">
-        <v>2750.531418</v>
-      </c>
-      <c r="K16">
-        <v>243.28783670000001</v>
-      </c>
-      <c r="L16">
-        <v>182.39057109999999</v>
-      </c>
-      <c r="M16">
-        <v>2773.905667</v>
-      </c>
-      <c r="N16">
-        <v>250.67317420000001</v>
-      </c>
-      <c r="O16">
-        <v>188.1103233</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2754.5423190000001</v>
       </c>
@@ -1068,26 +816,8 @@
       <c r="I17">
         <v>183.38853449999999</v>
       </c>
-      <c r="J17">
-        <v>2750.3926419999998</v>
-      </c>
-      <c r="K17">
-        <v>243.12212170000001</v>
-      </c>
-      <c r="L17">
-        <v>182.2273051</v>
-      </c>
-      <c r="M17">
-        <v>2774.1424019999999</v>
-      </c>
-      <c r="N17">
-        <v>250.9148079</v>
-      </c>
-      <c r="O17">
-        <v>188.3504604</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2755.5219149999998</v>
       </c>
@@ -1115,26 +845,8 @@
       <c r="I18">
         <v>184.44976349999999</v>
       </c>
-      <c r="J18">
-        <v>2750.1069259999999</v>
-      </c>
-      <c r="K18">
-        <v>242.84729060000001</v>
-      </c>
-      <c r="L18">
-        <v>181.9545148</v>
-      </c>
-      <c r="M18">
-        <v>2773.0185879999999</v>
-      </c>
-      <c r="N18">
-        <v>249.78065340000001</v>
-      </c>
-      <c r="O18">
-        <v>187.2178025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2754.9232729999999</v>
       </c>
@@ -1162,26 +874,8 @@
       <c r="I19">
         <v>183.8511215</v>
       </c>
-      <c r="J19">
-        <v>2749.5899169999998</v>
-      </c>
-      <c r="K19">
-        <v>242.32674420000001</v>
-      </c>
-      <c r="L19">
-        <v>181.43070309999999</v>
-      </c>
-      <c r="M19">
-        <v>2773.8077069999999</v>
-      </c>
-      <c r="N19">
-        <v>250.57521460000001</v>
-      </c>
-      <c r="O19">
-        <v>188.01290789999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2754.8416400000001</v>
       </c>
@@ -1209,26 +903,8 @@
       <c r="I20">
         <v>183.78309400000001</v>
       </c>
-      <c r="J20">
-        <v>2750.1069259999999</v>
-      </c>
-      <c r="K20">
-        <v>242.8717805</v>
-      </c>
-      <c r="L20">
-        <v>181.97546729999999</v>
-      </c>
-      <c r="M20">
-        <v>2773.8757350000001</v>
-      </c>
-      <c r="N20">
-        <v>250.67861640000001</v>
-      </c>
-      <c r="O20">
-        <v>188.1103233</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2755.4130709999999</v>
       </c>
@@ -1256,26 +932,8 @@
       <c r="I21">
         <v>184.2864975</v>
       </c>
-      <c r="J21">
-        <v>2750.2157699999998</v>
-      </c>
-      <c r="K21">
-        <v>242.95477410000001</v>
-      </c>
-      <c r="L21">
-        <v>182.06227039999999</v>
-      </c>
-      <c r="M21">
-        <v>2773.1464799999999</v>
-      </c>
-      <c r="N21">
-        <v>249.9167084</v>
-      </c>
-      <c r="O21">
-        <v>187.35229279999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2754.6783740000001</v>
       </c>
@@ -1303,26 +961,8 @@
       <c r="I22">
         <v>183.41574550000001</v>
       </c>
-      <c r="J22">
-        <v>2750.596724</v>
-      </c>
-      <c r="K22">
-        <v>243.3449798</v>
-      </c>
-      <c r="L22">
-        <v>182.44703390000001</v>
-      </c>
-      <c r="M22">
-        <v>2773.998184</v>
-      </c>
-      <c r="N22">
-        <v>250.78664409999999</v>
-      </c>
-      <c r="O22">
-        <v>188.22120810000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2754.7872179999999</v>
       </c>
@@ -1350,26 +990,8 @@
       <c r="I23">
         <v>183.6334335</v>
       </c>
-      <c r="J23">
-        <v>2750.084069</v>
-      </c>
-      <c r="K23">
-        <v>242.81354899999999</v>
-      </c>
-      <c r="L23">
-        <v>181.9239705</v>
-      </c>
-      <c r="M23">
-        <v>2774.085259</v>
-      </c>
-      <c r="N23">
-        <v>250.85576</v>
-      </c>
-      <c r="O23">
-        <v>188.2922288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2754.8416400000001</v>
       </c>
@@ -1397,26 +1019,8 @@
       <c r="I24">
         <v>183.52458949999999</v>
       </c>
-      <c r="J24">
-        <v>2749.9882859999998</v>
-      </c>
-      <c r="K24">
-        <v>242.7218479</v>
-      </c>
-      <c r="L24">
-        <v>181.82352779999999</v>
-      </c>
-      <c r="M24">
-        <v>2772.6838929999999</v>
-      </c>
-      <c r="N24">
-        <v>249.45765879999999</v>
-      </c>
-      <c r="O24">
-        <v>186.8931072</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2755.1681720000001</v>
       </c>
@@ -1444,26 +1048,8 @@
       <c r="I25">
         <v>183.90554349999999</v>
       </c>
-      <c r="J25">
-        <v>2749.8048840000001</v>
-      </c>
-      <c r="K25">
-        <v>242.53980630000001</v>
-      </c>
-      <c r="L25">
-        <v>181.65106449999999</v>
-      </c>
-      <c r="M25">
-        <v>2773.3179089999999</v>
-      </c>
-      <c r="N25">
-        <v>250.1126276</v>
-      </c>
-      <c r="O25">
-        <v>187.54644329999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2754.487897</v>
       </c>
@@ -1491,26 +1077,8 @@
       <c r="I26">
         <v>183.4701675</v>
       </c>
-      <c r="J26">
-        <v>2750.7300580000001</v>
-      </c>
-      <c r="K26">
-        <v>243.46389189999999</v>
-      </c>
-      <c r="L26">
-        <v>182.57546980000001</v>
-      </c>
-      <c r="M26">
-        <v>2773.2517859999998</v>
-      </c>
-      <c r="N26">
-        <v>250.02283130000001</v>
-      </c>
-      <c r="O26">
-        <v>187.45921849999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2755.576337</v>
       </c>
@@ -1538,26 +1106,8 @@
       <c r="I27">
         <v>184.327314</v>
       </c>
-      <c r="J27">
-        <v>2750.6974049999999</v>
-      </c>
-      <c r="K27">
-        <v>243.42797329999999</v>
-      </c>
-      <c r="L27">
-        <v>182.5340411</v>
-      </c>
-      <c r="M27">
-        <v>2773.4947809999999</v>
-      </c>
-      <c r="N27">
-        <v>250.25847859999999</v>
-      </c>
-      <c r="O27">
-        <v>187.6954916</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2754.7327959999998</v>
       </c>
@@ -1585,26 +1135,8 @@
       <c r="I28">
         <v>183.6062225</v>
       </c>
-      <c r="J28">
-        <v>2749.8810749999998</v>
-      </c>
-      <c r="K28">
-        <v>242.61028279999999</v>
-      </c>
-      <c r="L28">
-        <v>181.71621450000001</v>
-      </c>
-      <c r="M28">
-        <v>2773.3818550000001</v>
-      </c>
-      <c r="N28">
-        <v>250.15289989999999</v>
-      </c>
-      <c r="O28">
-        <v>187.58889249999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2755.1953830000002</v>
       </c>
@@ -1631,24 +1163,6 @@
       </c>
       <c r="I29">
         <v>184.06880949999999</v>
-      </c>
-      <c r="J29">
-        <v>2749.9871979999998</v>
-      </c>
-      <c r="K29">
-        <v>242.7370861</v>
-      </c>
-      <c r="L29">
-        <v>181.84126259999999</v>
-      </c>
-      <c r="M29">
-        <v>2773.4697460000002</v>
-      </c>
-      <c r="N29">
-        <v>250.23643770000001</v>
-      </c>
-      <c r="O29">
-        <v>187.67304250000001</v>
       </c>
     </row>
   </sheetData>
